--- a/CPSA_prject/BOM.xlsx
+++ b/CPSA_prject/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robyr\Documents\GitHub\CPSA_project_infineon\ProjectSchematic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robyr\Documents\GitHub\CPSA_project_infineon\CPSA_prject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D13452D-CC5E-4A0A-8AD6-4718381E6B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673B8296-E73F-4ABB-9790-6B5892B090BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6315" yWindow="0" windowWidth="21600" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="63">
   <si>
     <t>U1</t>
   </si>
@@ -157,6 +157,72 @@
   </si>
   <si>
     <t>L2</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>CAPACITOR &gt;5V</t>
+  </si>
+  <si>
+    <t>10u</t>
+  </si>
+  <si>
+    <t>20u</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>LINEAR REGULATOR VR2</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>600k</t>
   </si>
 </sst>
 </file>
@@ -556,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -603,8 +669,8 @@
         <v>3</v>
       </c>
       <c r="F2" s="9">
-        <f>SUM(D2:D15)</f>
-        <v>7.240000000000002</v>
+        <f>SUM(D2:D27)</f>
+        <v>12.569999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -623,38 +689,38 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>54</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="5">
-        <v>0.03</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>55</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D5" s="5">
-        <v>0.03</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
@@ -665,10 +731,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>29</v>
@@ -679,10 +745,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>29</v>
@@ -693,10 +759,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>29</v>
@@ -707,10 +773,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>29</v>
@@ -721,10 +787,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>29</v>
@@ -735,169 +801,407 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="5">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="5">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="5">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="5">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="5">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" s="5">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="5">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D19" s="5">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D20" s="5">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D21" s="5">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" s="5">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="5">
+      <c r="C35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="5">
         <v>0</v>
       </c>
     </row>
